--- a/ComCasrCRMGUIFrameWork/src/main/resources/TestScriptData.xlsx
+++ b/ComCasrCRMGUIFrameWork/src/main/resources/TestScriptData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Virtual_Gamer\Anmol\ComCasrCRMGUIFrameWork\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Virtual_Gamer\git\ComcastGUITekPyramid\ComCasrCRMGUIFrameWork\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F07127-B1DE-4F2C-A0FA-6F6D748A488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D175A6-6696-432C-A7E5-A6CF282E9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Org" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>TC_ID</t>
   </si>
@@ -88,18 +88,12 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Tiwari_</t>
-  </si>
-  <si>
     <t>Das_</t>
   </si>
   <si>
     <t>Kaintura_</t>
   </si>
   <si>
-    <t>FaceBook_</t>
-  </si>
-  <si>
     <t>Instagram_</t>
   </si>
   <si>
@@ -142,7 +136,16 @@
     <t>9910508855</t>
   </si>
   <si>
-    <t>BlackRock_</t>
+    <t>RedLabel_</t>
+  </si>
+  <si>
+    <t>IBM_</t>
+  </si>
+  <si>
+    <t>Kandari_</t>
+  </si>
+  <si>
+    <t>Happen_</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -502,16 +505,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -528,19 +531,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -575,19 +578,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -622,19 +625,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
@@ -649,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936DD4E0-63F1-4E3B-8E80-BA99B2576DE8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,10 +695,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -743,10 +746,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -792,10 +795,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>

--- a/ComCasrCRMGUIFrameWork/src/main/resources/TestScriptData.xlsx
+++ b/ComCasrCRMGUIFrameWork/src/main/resources/TestScriptData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Virtual_Gamer\git\ComcastGUITekPyramid\ComCasrCRMGUIFrameWork\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D175A6-6696-432C-A7E5-A6CF282E9201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E79A9B-8EE8-4941-BF28-6982F353BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Org" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Kaintura_</t>
   </si>
   <si>
-    <t>Instagram_</t>
-  </si>
-  <si>
     <t>instagram_</t>
   </si>
   <si>
@@ -142,10 +139,13 @@
     <t>IBM_</t>
   </si>
   <si>
-    <t>Kandari_</t>
-  </si>
-  <si>
-    <t>Happen_</t>
+    <t>Senco_</t>
+  </si>
+  <si>
+    <t>Bhaskar_</t>
+  </si>
+  <si>
+    <t>TrustLine_</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,16 +505,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -531,19 +531,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -578,19 +578,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -625,19 +625,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936DD4E0-63F1-4E3B-8E80-BA99B2576DE8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -746,7 +746,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
@@ -795,7 +795,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>

--- a/ComCasrCRMGUIFrameWork/src/main/resources/TestScriptData.xlsx
+++ b/ComCasrCRMGUIFrameWork/src/main/resources/TestScriptData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Virtual_Gamer\git\ComcastGUITekPyramid\ComCasrCRMGUIFrameWork\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E79A9B-8EE8-4941-BF28-6982F353BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48705A77-A761-4ECD-915B-C5432F4E2109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Org" sheetId="1" r:id="rId1"/>
@@ -133,19 +133,19 @@
     <t>9910508855</t>
   </si>
   <si>
-    <t>RedLabel_</t>
-  </si>
-  <si>
     <t>IBM_</t>
   </si>
   <si>
-    <t>Senco_</t>
-  </si>
-  <si>
-    <t>Bhaskar_</t>
-  </si>
-  <si>
     <t>TrustLine_</t>
+  </si>
+  <si>
+    <t>Rasna_</t>
+  </si>
+  <si>
+    <t>BareAnatomy_</t>
+  </si>
+  <si>
+    <t>Pillai_</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936DD4E0-63F1-4E3B-8E80-BA99B2576DE8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,7 +695,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -746,10 +746,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>

--- a/ComCasrCRMGUIFrameWork/src/main/resources/TestScriptData.xlsx
+++ b/ComCasrCRMGUIFrameWork/src/main/resources/TestScriptData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Virtual_Gamer\git\ComcastGUITekPyramid\ComCasrCRMGUIFrameWork\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48705A77-A761-4ECD-915B-C5432F4E2109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56439A5-8C7B-4466-8AB8-A4B8DE92929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,16 +136,16 @@
     <t>IBM_</t>
   </si>
   <si>
-    <t>TrustLine_</t>
-  </si>
-  <si>
-    <t>Rasna_</t>
-  </si>
-  <si>
-    <t>BareAnatomy_</t>
-  </si>
-  <si>
-    <t>Pillai_</t>
+    <t>Pepe_</t>
+  </si>
+  <si>
+    <t>LifeGooD_</t>
+  </si>
+  <si>
+    <t>DermaCo_</t>
+  </si>
+  <si>
+    <t>Mohanty_</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
